--- a/demo-all/src/test/resources/rest/demo-all.xlsx
+++ b/demo-all/src/test/resources/rest/demo-all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\demo-all\src\test\resources\rest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C04B40-B8E4-4ACB-9560-A78ABA7DD86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B86CD4-BE32-4811-967A-AEBE83DC923F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Rest-Get" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Tags</t>
-  </si>
-  <si>
-    <t>@examples</t>
   </si>
   <si>
     <t>https://localhost/persons/bgates</t>
@@ -163,13 +160,19 @@
     <t>status=available;</t>
   </si>
   <si>
-    <t xml:space="preserve"> @empty_test</t>
-  </si>
-  <si>
     <t>https://live.virtualandemo.com/pets</t>
   </si>
   <si>
-    <t xml:space="preserve"> @test_2</t>
+    <t xml:space="preserve"> @simple-get @csvson-example</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @test_null  @queryparam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @test_empty @queryparam @single-field-validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @multi-run @parametrized  @simple-post</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -327,13 +330,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -354,6 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -929,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E57E3D-0C14-46A6-9520-2A3B86BE3763}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,7 +960,7 @@
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="65.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -985,19 +1000,19 @@
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -1013,24 +1028,24 @@
         <v>14</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
@@ -1042,30 +1057,30 @@
         <v>200</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -1077,13 +1092,13 @@
         <v>200</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1101,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D00253B-7CE6-4E10-89F4-A8B77F16754F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,9 +1133,10 @@
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1146,36 +1162,42 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="10">
         <v>201</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/demo-all/src/test/resources/rest/demo-all.xlsx
+++ b/demo-all/src/test/resources/rest/demo-all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\demo-all\src\test\resources\rest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B86CD4-BE32-4811-967A-AEBE83DC923F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ECDAB4-C364-4621-BADE-37FBCDFD633D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E57E3D-0C14-46A6-9520-2A3B86BE3763}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/demo-all/src/test/resources/rest/demo-all.xlsx
+++ b/demo-all/src/test/resources/rest/demo-all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\demo-all\src\test\resources\rest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ECDAB4-C364-4621-BADE-37FBCDFD633D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6E31F7-7354-4B99-8CB1-83DB328CA30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
@@ -199,6 +199,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -945,7 +946,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1120,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
